--- a/data/output/Pedido_Semana_06_13022026_maf.xlsx
+++ b/data/output/Pedido_Semana_06_13022026_maf.xlsx
@@ -889,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>7.1</v>
@@ -1407,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>7804200001</t>
@@ -1456,13 +1456,13 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="6" t="n">
-        <v>27.25</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>16.35</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="inlineStr">
         <is>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="P12" s="3" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>7</v>
       </c>
       <c r="U12" s="8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>7.05</v>
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>7905130010</t>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>11.35</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>6.81</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="inlineStr">
         <is>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" hidden="1">
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>7804230001</t>
@@ -2107,10 +2107,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>17.46</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="inlineStr">
         <is>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="U20" s="8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2188,10 +2188,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="6" t="n">
-        <v>38.5</v>
+        <v>3.5</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>23.1</v>
+        <v>2.1</v>
       </c>
       <c r="O21" s="7" t="inlineStr">
         <is>
@@ -2199,10 +2199,10 @@
         </is>
       </c>
       <c r="P21" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="U21" s="8" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2266,7 +2266,7 @@
         <v>3</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>68.75</v>
@@ -2347,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>9.699999999999999</v>
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>7803180002</t>
@@ -2833,13 +2833,13 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="inlineStr">
         <is>
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="P29" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
@@ -2862,10 +2862,10 @@
         <v>4</v>
       </c>
       <c r="U29" s="8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" hidden="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>7804160003</t>
@@ -2914,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>18.9</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>11.34</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="P30" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="U30" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" hidden="1">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>7804200001</t>
@@ -2995,13 +2995,13 @@
         <v>2</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>34.2</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>20.52</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="inlineStr">
         <is>
@@ -3009,10 +3009,10 @@
         </is>
       </c>
       <c r="P31" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="U31" s="8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3157,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>21.6</v>
@@ -3319,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M35" s="6" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>7201000001</t>
@@ -3400,13 +3400,13 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M36" s="6" t="n">
-        <v>13.05</v>
+        <v>0</v>
       </c>
       <c r="N36" s="4" t="n">
-        <v>7.83</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="inlineStr">
         <is>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="P36" s="3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="U36" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" hidden="1">
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="6" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>2</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M39" s="6" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M40" s="6" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="M41" s="6" t="n">
         <v>0</v>
@@ -4080,7 +4080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="1">
       <c r="A45" s="2" t="inlineStr">
         <is>
           <t>7803180001</t>
@@ -4132,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="6" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="O45" s="7" t="inlineStr">
         <is>
@@ -4143,10 +4143,10 @@
         </is>
       </c>
       <c r="P45" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
@@ -4158,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="U45" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" hidden="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
           <t>7804200001</t>
@@ -4213,10 +4213,10 @@
         <v>0</v>
       </c>
       <c r="M46" s="6" t="n">
-        <v>18.82</v>
+        <v>0</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>11.29</v>
+        <v>0</v>
       </c>
       <c r="O46" s="7" t="inlineStr">
         <is>
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="P46" s="3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
@@ -4239,10 +4239,10 @@
         <v>1</v>
       </c>
       <c r="U46" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" hidden="1">
       <c r="A47" s="2" t="inlineStr">
         <is>
           <t>7804230001</t>
@@ -4291,13 +4291,13 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="6" t="n">
-        <v>16.75</v>
+        <v>0</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>10.05</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="inlineStr">
         <is>
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="P47" s="3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R47" s="2" t="n">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>2</v>
       </c>
       <c r="U47" s="8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="6" t="n">
         <v>13.6</v>
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M52" s="6" t="n">
         <v>22.72</v>
@@ -4939,7 +4939,7 @@
         <v>2</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="6" t="n">
         <v>42</v>
@@ -5182,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M58" s="6" t="n">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="C61" s="5" t="n">
-        <v>159</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="C63" s="5" t="inlineStr">
         <is>
-          <t>768.43€</t>
+          <t>541.36€</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="C72" s="5" t="n">
-        <v>0</v>
+        <v>-41</v>
       </c>
     </row>
   </sheetData>
